--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -160,6 +160,15 @@
   </x:si>
   <x:si>
     <x:t>Seif Yehia Mohamed Mohamed Fathi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
     <x:t>1230206</x:t>
@@ -365,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1232,7 +1241,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1264,7 +1273,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1296,7 +1305,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1328,7 +1337,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1360,7 +1369,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1537,6 +1546,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Ayman Helmy Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>2230004</x:t>
@@ -374,7 +383,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -674,7 +683,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -957,7 +966,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6676659375</x:v>
+        <x:v>45924.0342148495</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -989,7 +998,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4263298958</x:v>
+        <x:v>45907.6676659375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1021,7 +1030,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45907.4263298958</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1049,9 +1058,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4208133102</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1074,14 +1085,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45907.4208133102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1104,16 +1115,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.4152355671</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651596875</x:v>
+        <x:v>45907.4152355671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.418918287</x:v>
+        <x:v>45907.6651596875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.419212581</x:v>
+        <x:v>45907.418918287</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45907.419212581</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1578,6 +1587,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -268,6 +268,12 @@
   </x:si>
   <x:si>
     <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -383,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -683,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1619,6 +1625,36 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s"/>
+      <x:c r="E29" s="3">
+        <x:v>45926.4137069792</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -189,6 +189,15 @@
     <x:t>Ali Tarek Mohamed Hussein Al Hakim Mohamed Hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>1230217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد قناوي محمود مصلح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Kenawi Mahmoud Mosleh</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230077</x:t>
   </x:si>
   <x:si>
@@ -196,15 +205,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Walid El Taher Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم وائل إسماعيل يوسف ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230231</x:t>
@@ -1352,7 +1352,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1384,7 +1384,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>kheder Yousef kheder sabrah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ديفيد حسنى دانيال رؤفائيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Hosny Danial Rofaeil</x:t>
   </x:si>
   <x:si>
     <x:t>1230184</x:t>
@@ -389,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1036,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4263298958</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1064,11 +1055,9 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45907.4208133102</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,14 +1080,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.4208133102</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1121,14 +1110,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45907.4152355671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4152355671</x:v>
+        <x:v>45907.6651596875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651596875</x:v>
+        <x:v>45907.418918287</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.418918287</x:v>
+        <x:v>45907.419212581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.419212581</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4146389699</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1448,7 +1439,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1480,7 +1471,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1512,7 +1503,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1544,7 +1535,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1576,7 +1567,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1604,11 +1595,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45926.4137069792</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1625,36 +1614,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s"/>
-      <x:c r="E29" s="3">
-        <x:v>45926.4137069792</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,12 +118,6 @@
   </x:si>
   <x:si>
     <x:t>زياد احمد حسن عبده الخياط</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد خالد سيف الله محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1230042</x:t>
@@ -380,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1085,9 +1079,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45907.4152355671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1110,16 +1106,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4152355671</x:v>
+        <x:v>45907.6651596875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1142,16 +1138,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651596875</x:v>
+        <x:v>45907.418918287</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1174,16 +1170,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.418918287</x:v>
+        <x:v>45907.419212581</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1206,16 +1202,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.419212581</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1238,16 +1234,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1270,16 +1266,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1302,16 +1298,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4146389699</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1334,16 +1330,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1366,16 +1362,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1398,16 +1394,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1430,16 +1426,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1462,16 +1458,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1494,16 +1490,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1526,16 +1522,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1558,16 +1554,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45926.4137069792</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1584,36 +1578,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s"/>
-      <x:c r="E28" s="3">
-        <x:v>45926.4137069792</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Roaa Hesham Salah Elsayed Hamoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
   </x:si>
   <x:si>
     <x:t>4240016</x:t>
@@ -374,7 +383,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -674,7 +683,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -683,8 +692,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.600625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.160625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1049,9 +1058,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4208133102</x:v>
+        <x:v>45929.4586280093</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1074,16 +1085,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.4152355671</x:v>
+        <x:v>45907.4208133102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651596875</x:v>
+        <x:v>45907.4152355671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.418918287</x:v>
+        <x:v>45907.6651596875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.419212581</x:v>
+        <x:v>45907.418918287</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45907.419212581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1275,7 +1284,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4146389699</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1307,7 +1316,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1339,7 +1348,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1371,7 +1380,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1403,7 +1412,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1435,7 +1444,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1467,7 +1476,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1499,7 +1508,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1531,7 +1540,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1559,9 +1568,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45926.4137069792</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1578,6 +1589,36 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s"/>
+      <x:c r="E28" s="3">
+        <x:v>45926.4137069792</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي طارق محمد حسين الحكيم محمد حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Tarek Mohamed Hussein Al Hakim Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1230217</x:t>
@@ -383,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -683,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -691,7 +682,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.600625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.620625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1284,7 +1275,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1316,7 +1307,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4146389699</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1348,7 +1339,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1380,7 +1371,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1412,7 +1403,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1444,7 +1435,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1476,7 +1467,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1508,7 +1499,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1540,7 +1531,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1568,11 +1559,9 @@
       <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45926.4137069792</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1589,36 +1578,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s"/>
-      <x:c r="E28" s="3">
-        <x:v>45926.4137069792</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35290.xlsx
+++ b/downloaded_files/EECS112_Lecture-35290.xlsx
@@ -120,7 +120,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>4240016</x:t>
@@ -683,7 +683,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
